--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.060395773196</v>
+        <v>13.10993833333333</v>
       </c>
       <c r="H2">
-        <v>13.060395773196</v>
+        <v>39.329815</v>
       </c>
       <c r="I2">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="J2">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N2">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q2">
-        <v>35.08046123317361</v>
+        <v>39.23991141288945</v>
       </c>
       <c r="R2">
-        <v>35.08046123317361</v>
+        <v>353.1592027160051</v>
       </c>
       <c r="S2">
-        <v>0.02613158603651095</v>
+        <v>0.02564349107673784</v>
       </c>
       <c r="T2">
-        <v>0.02613158603651095</v>
+        <v>0.02564349107673784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.060395773196</v>
+        <v>13.10993833333333</v>
       </c>
       <c r="H3">
-        <v>13.060395773196</v>
+        <v>39.329815</v>
       </c>
       <c r="I3">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="J3">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N3">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q3">
-        <v>417.7256075843825</v>
+        <v>419.4559117788434</v>
       </c>
       <c r="R3">
-        <v>417.7256075843825</v>
+        <v>3775.10320600959</v>
       </c>
       <c r="S3">
-        <v>0.3111655967602448</v>
+        <v>0.2741166721200214</v>
       </c>
       <c r="T3">
-        <v>0.3111655967602448</v>
+        <v>0.2741166721200214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.060395773196</v>
+        <v>13.10993833333333</v>
       </c>
       <c r="H4">
-        <v>13.060395773196</v>
+        <v>39.329815</v>
       </c>
       <c r="I4">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="J4">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N4">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q4">
-        <v>397.825090841254</v>
+        <v>449.5305473134545</v>
       </c>
       <c r="R4">
-        <v>397.825090841254</v>
+        <v>4045.77492582109</v>
       </c>
       <c r="S4">
-        <v>0.2963416164828041</v>
+        <v>0.2937706066014998</v>
       </c>
       <c r="T4">
-        <v>0.2963416164828041</v>
+        <v>0.2937706066014998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.060395773196</v>
+        <v>13.10993833333333</v>
       </c>
       <c r="H5">
-        <v>13.060395773196</v>
+        <v>39.329815</v>
       </c>
       <c r="I5">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="J5">
-        <v>0.7876088940017045</v>
+        <v>0.7359543949389752</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N5">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q5">
-        <v>206.6978227583101</v>
+        <v>217.9379717410622</v>
       </c>
       <c r="R5">
-        <v>206.6978227583101</v>
+        <v>1961.44174566956</v>
       </c>
       <c r="S5">
-        <v>0.1539700947221448</v>
+        <v>0.142423625140716</v>
       </c>
       <c r="T5">
-        <v>0.1539700947221448</v>
+        <v>0.1424236251407161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.486706888881885</v>
+        <v>0.5586273333333333</v>
       </c>
       <c r="H6">
-        <v>0.486706888881885</v>
+        <v>1.675882</v>
       </c>
       <c r="I6">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="J6">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N6">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q6">
-        <v>1.307303579756784</v>
+        <v>1.672051119957111</v>
       </c>
       <c r="R6">
-        <v>1.307303579756784</v>
+        <v>15.048460079614</v>
       </c>
       <c r="S6">
-        <v>0.0009738160437283009</v>
+        <v>0.001092694311241117</v>
       </c>
       <c r="T6">
-        <v>0.0009738160437283009</v>
+        <v>0.001092694311241117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.486706888881885</v>
+        <v>0.5586273333333333</v>
       </c>
       <c r="H7">
-        <v>0.486706888881885</v>
+        <v>1.675882</v>
       </c>
       <c r="I7">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="J7">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N7">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q7">
-        <v>15.56690428102839</v>
+        <v>17.87342789036133</v>
       </c>
       <c r="R7">
-        <v>15.56690428102839</v>
+        <v>160.860851013252</v>
       </c>
       <c r="S7">
-        <v>0.01159585376708638</v>
+        <v>0.01168038030959072</v>
       </c>
       <c r="T7">
-        <v>0.01159585376708638</v>
+        <v>0.01168038030959072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.486706888881885</v>
+        <v>0.5586273333333333</v>
       </c>
       <c r="H8">
-        <v>0.486706888881885</v>
+        <v>1.675882</v>
       </c>
       <c r="I8">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="J8">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N8">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q8">
-        <v>14.82529439727066</v>
+        <v>19.15493761393911</v>
       </c>
       <c r="R8">
-        <v>14.82529439727066</v>
+        <v>172.394438525452</v>
       </c>
       <c r="S8">
-        <v>0.01104342538382966</v>
+        <v>0.0125178537385069</v>
       </c>
       <c r="T8">
-        <v>0.01104342538382966</v>
+        <v>0.0125178537385069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.486706888881885</v>
+        <v>0.5586273333333333</v>
       </c>
       <c r="H9">
-        <v>0.486706888881885</v>
+        <v>1.675882</v>
       </c>
       <c r="I9">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="J9">
-        <v>0.02935092328840403</v>
+        <v>0.03135973874525266</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N9">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q9">
-        <v>7.702772259001638</v>
+        <v>9.286550774707553</v>
       </c>
       <c r="R9">
-        <v>7.702772259001638</v>
+        <v>83.57895697236799</v>
       </c>
       <c r="S9">
-        <v>0.005737828093759685</v>
+        <v>0.006068810385913929</v>
       </c>
       <c r="T9">
-        <v>0.005737828093759685</v>
+        <v>0.00606881038591393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.0352339172342</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H10">
-        <v>3.0352339172342</v>
+        <v>0.278564</v>
       </c>
       <c r="I10">
-        <v>0.1830401827098914</v>
+        <v>0.005212595077596491</v>
       </c>
       <c r="J10">
-        <v>0.1830401827098914</v>
+        <v>0.005212595077596491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N10">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q10">
-        <v>8.152693656165676</v>
+        <v>0.2779272336475556</v>
       </c>
       <c r="R10">
-        <v>8.152693656165676</v>
+        <v>2.501345102828</v>
       </c>
       <c r="S10">
-        <v>0.006072976472269064</v>
+        <v>0.0001816269272637158</v>
       </c>
       <c r="T10">
-        <v>0.006072976472269064</v>
+        <v>0.0001816269272637158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.0352339172342</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H11">
-        <v>3.0352339172342</v>
+        <v>0.278564</v>
       </c>
       <c r="I11">
-        <v>0.1830401827098914</v>
+        <v>0.005212595077596491</v>
       </c>
       <c r="J11">
-        <v>0.1830401827098914</v>
+        <v>0.005212595077596491</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N11">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q11">
-        <v>97.07936530066699</v>
+        <v>2.970909387922666</v>
       </c>
       <c r="R11">
-        <v>97.07936530066699</v>
+        <v>26.738184491304</v>
       </c>
       <c r="S11">
-        <v>0.07231483559644052</v>
+        <v>0.001941505106302728</v>
       </c>
       <c r="T11">
-        <v>0.07231483559644052</v>
+        <v>0.001941505106302729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.0352339172342</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H12">
-        <v>3.0352339172342</v>
+        <v>0.278564</v>
       </c>
       <c r="I12">
-        <v>0.1830401827098914</v>
+        <v>0.005212595077596491</v>
       </c>
       <c r="J12">
-        <v>0.1830401827098914</v>
+        <v>0.005212595077596491</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N12">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q12">
-        <v>92.45448834914336</v>
+        <v>3.183921088411555</v>
       </c>
       <c r="R12">
-        <v>92.45448834914336</v>
+        <v>28.655289795704</v>
       </c>
       <c r="S12">
-        <v>0.06886974491864949</v>
+        <v>0.00208070938694576</v>
       </c>
       <c r="T12">
-        <v>0.06886974491864949</v>
+        <v>0.00208070938694576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09285466666666665</v>
+      </c>
+      <c r="H13">
+        <v>0.278564</v>
+      </c>
+      <c r="I13">
+        <v>0.005212595077596491</v>
+      </c>
+      <c r="J13">
+        <v>0.005212595077596491</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.62387466666667</v>
+      </c>
+      <c r="N13">
+        <v>49.871624</v>
+      </c>
+      <c r="O13">
+        <v>0.1935223515480544</v>
+      </c>
+      <c r="P13">
+        <v>0.1935223515480545</v>
+      </c>
+      <c r="Q13">
+        <v>1.543604340881777</v>
+      </c>
+      <c r="R13">
+        <v>13.892439067936</v>
+      </c>
+      <c r="S13">
+        <v>0.001008753657084286</v>
+      </c>
+      <c r="T13">
+        <v>0.001008753657084287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.052099666666667</v>
+      </c>
+      <c r="H14">
+        <v>12.156299</v>
+      </c>
+      <c r="I14">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="J14">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.993142333333334</v>
+      </c>
+      <c r="N14">
+        <v>8.979427000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.03484385887642424</v>
+      </c>
+      <c r="P14">
+        <v>0.03484385887642424</v>
+      </c>
+      <c r="Q14">
+        <v>12.12851105118589</v>
+      </c>
+      <c r="R14">
+        <v>109.156599460673</v>
+      </c>
+      <c r="S14">
+        <v>0.007926046561181566</v>
+      </c>
+      <c r="T14">
+        <v>0.007926046561181566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.052099666666667</v>
+      </c>
+      <c r="H15">
+        <v>12.156299</v>
+      </c>
+      <c r="I15">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="J15">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.995262</v>
+      </c>
+      <c r="N15">
+        <v>95.985786</v>
+      </c>
+      <c r="O15">
+        <v>0.3724642097459734</v>
+      </c>
+      <c r="P15">
+        <v>0.3724642097459735</v>
+      </c>
+      <c r="Q15">
+        <v>129.6479904851127</v>
+      </c>
+      <c r="R15">
+        <v>1166.831914366014</v>
+      </c>
+      <c r="S15">
+        <v>0.08472565221005857</v>
+      </c>
+      <c r="T15">
+        <v>0.08472565221005858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.0352339172342</v>
-      </c>
-      <c r="H13">
-        <v>3.0352339172342</v>
-      </c>
-      <c r="I13">
-        <v>0.1830401827098914</v>
-      </c>
-      <c r="J13">
-        <v>0.1830401827098914</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.8263062121378</v>
-      </c>
-      <c r="N13">
-        <v>15.8263062121378</v>
-      </c>
-      <c r="O13">
-        <v>0.1954905485384369</v>
-      </c>
-      <c r="P13">
-        <v>0.1954905485384369</v>
-      </c>
-      <c r="Q13">
-        <v>48.03654139961497</v>
-      </c>
-      <c r="R13">
-        <v>48.03654139961497</v>
-      </c>
-      <c r="S13">
-        <v>0.03578262572253239</v>
-      </c>
-      <c r="T13">
-        <v>0.03578262572253239</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.052099666666667</v>
+      </c>
+      <c r="H16">
+        <v>12.156299</v>
+      </c>
+      <c r="I16">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="J16">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>34.28929533333334</v>
+      </c>
+      <c r="N16">
+        <v>102.867886</v>
+      </c>
+      <c r="O16">
+        <v>0.3991695798295478</v>
+      </c>
+      <c r="P16">
+        <v>0.3991695798295478</v>
+      </c>
+      <c r="Q16">
+        <v>138.9436421904349</v>
+      </c>
+      <c r="R16">
+        <v>1250.492779713914</v>
+      </c>
+      <c r="S16">
+        <v>0.09080041010259532</v>
+      </c>
+      <c r="T16">
+        <v>0.09080041010259532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.052099666666667</v>
+      </c>
+      <c r="H17">
+        <v>12.156299</v>
+      </c>
+      <c r="I17">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="J17">
+        <v>0.2274732712381757</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.62387466666667</v>
+      </c>
+      <c r="N17">
+        <v>49.871624</v>
+      </c>
+      <c r="O17">
+        <v>0.1935223515480544</v>
+      </c>
+      <c r="P17">
+        <v>0.1935223515480545</v>
+      </c>
+      <c r="Q17">
+        <v>67.36159699550845</v>
+      </c>
+      <c r="R17">
+        <v>606.254372959576</v>
+      </c>
+      <c r="S17">
+        <v>0.04402116236434017</v>
+      </c>
+      <c r="T17">
+        <v>0.04402116236434018</v>
       </c>
     </row>
   </sheetData>
